--- a/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Toyota Yaris" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Mazda MX-30" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Honda JAZZ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Land Rover Defender" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SEAT Leon" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="KIA Sorento" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Honda e" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Hyundai i10" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ISUZU D-Max Crew Cab" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Audi A3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Honda JAZZ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Mazda MX-30" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Audi A3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Honda e" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Hyundai i10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ISUZU D-Max Crew Cab" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="KIA Sorento" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Land Rover Defender" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="SEAT Leon" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01807228915662651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2228915662650602</v>
+        <v>0.2951807228915663</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2530120481927711</v>
+        <v>0.2469879518072289</v>
       </c>
     </row>
     <row r="5">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="6">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1265060240963855</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="7">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1265060240963855</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="8">
@@ -803,7 +803,7 @@
         <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>94.75</v>
+        <v>99.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05421686746987952</v>
+        <v>0.1217948717948718</v>
       </c>
     </row>
     <row r="6">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="7">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="9">
@@ -993,10 +993,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D10" t="n">
-        <v>131.25</v>
+        <v>104.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1730769230769231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.4698795180722892</v>
       </c>
     </row>
     <row r="4">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.3674698795180723</v>
       </c>
     </row>
     <row r="5">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1217948717948718</v>
+        <v>0.05421686746987952</v>
       </c>
     </row>
     <row r="6">
@@ -1120,13 +1120,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="7">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="8">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1186,10 +1186,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>104.75</v>
+        <v>131.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.01807228915662651</v>
       </c>
     </row>
     <row r="3">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4968152866242038</v>
+        <v>0.2228915662650602</v>
       </c>
     </row>
     <row r="4">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>31.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1719745222929936</v>
+        <v>0.2530120481927711</v>
       </c>
     </row>
     <row r="5">
@@ -1296,13 +1296,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2229299363057325</v>
+        <v>0.2168674698795181</v>
       </c>
     </row>
     <row r="6">
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06369426751592357</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="7">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04458598726114649</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="8">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="9">
@@ -1379,10 +1379,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>118.25</v>
+        <v>94.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1513157894736842</v>
       </c>
     </row>
     <row r="3">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2951807228915663</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="4">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>22.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2469879518072289</v>
+        <v>0.1973684210526316</v>
       </c>
     </row>
     <row r="5">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.09868421052631579</v>
       </c>
     </row>
     <row r="6">
@@ -1506,13 +1506,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09036144578313253</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="7">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1385542168674699</v>
+        <v>0.09210526315789473</v>
       </c>
     </row>
     <row r="8">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -1572,10 +1572,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5</v>
+        <v>110.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2098765432098765</v>
       </c>
     </row>
     <row r="3">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2252747252747253</v>
+        <v>0.08024691358024691</v>
       </c>
     </row>
     <row r="4">
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5</v>
+        <v>24.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="5">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="7">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1263736263736264</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="9">
@@ -1765,10 +1765,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>93.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1513157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.1419753086419753</v>
       </c>
     </row>
     <row r="4">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1973684210526316</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="5">
@@ -1875,13 +1875,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09868421052631579</v>
+        <v>0.228395061728395</v>
       </c>
     </row>
     <row r="6">
@@ -1892,13 +1892,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="7">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="8">
@@ -1926,13 +1926,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1958,13 +1958,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>110.5</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2098765432098765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2034,13 +2034,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.2252747252747253</v>
       </c>
     </row>
     <row r="4">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>24.75</v>
+        <v>49.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.3626373626373626</v>
       </c>
     </row>
     <row r="5">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1648351648351648</v>
       </c>
     </row>
     <row r="6">
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.0989010989010989</v>
       </c>
     </row>
     <row r="7">
@@ -2102,13 +2102,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1263736263736264</v>
       </c>
     </row>
     <row r="8">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="9">
@@ -2151,10 +2151,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>93.25</v>
+        <v>110</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2227,13 +2227,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1419753086419753</v>
+        <v>0.4968152866242038</v>
       </c>
     </row>
     <row r="4">
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="5">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.228395061728395</v>
+        <v>0.2229299363057325</v>
       </c>
     </row>
     <row r="6">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.06369426751592357</v>
       </c>
     </row>
     <row r="7">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.04458598726114649</v>
       </c>
     </row>
     <row r="8">
@@ -2344,13 +2344,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>118.25</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Toyota Yaris" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Honda JAZZ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Mazda MX-30" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Audi A3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Honda e" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Hyundai i10" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ISUZU D-Max Crew Cab" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="KIA Sorento" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Land Rover Defender" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="SEAT Leon" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mazda MX-30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Honda JAZZ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Land Rover Defender" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SEAT Leon" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="KIA Sorento" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Honda e" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hyundai i10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ISUZU D-Max Crew Cab" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Audi A3" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,13 +666,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.01807228915662651</v>
       </c>
     </row>
     <row r="3">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2951807228915663</v>
+        <v>0.2228915662650602</v>
       </c>
     </row>
     <row r="4">
@@ -700,13 +700,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2469879518072289</v>
+        <v>0.2530120481927711</v>
       </c>
     </row>
     <row r="5">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.2168674698795181</v>
       </c>
     </row>
     <row r="6">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09036144578313253</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="7">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1385542168674699</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="8">
@@ -803,7 +803,7 @@
         <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5</v>
+        <v>94.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1730769230769231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.4698795180722892</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.3674698795180723</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1217948717948718</v>
+        <v>0.05421686746987952</v>
       </c>
     </row>
     <row r="6">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="7">
@@ -944,13 +944,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="8">
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -993,10 +993,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>104.75</v>
+        <v>131.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1052,13 +1052,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -1069,13 +1069,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05421686746987952</v>
+        <v>0.1217948717948718</v>
       </c>
     </row>
     <row r="6">
@@ -1120,13 +1120,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="7">
@@ -1137,13 +1137,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -1154,13 +1154,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="9">
@@ -1186,10 +1186,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D10" t="n">
-        <v>131.25</v>
+        <v>104.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01807228915662651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2228915662650602</v>
+        <v>0.4968152866242038</v>
       </c>
     </row>
     <row r="4">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2530120481927711</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="5">
@@ -1296,13 +1296,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.2229299363057325</v>
       </c>
     </row>
     <row r="6">
@@ -1313,13 +1313,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1265060240963855</v>
+        <v>0.06369426751592357</v>
       </c>
     </row>
     <row r="7">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1265060240963855</v>
+        <v>0.04458598726114649</v>
       </c>
     </row>
     <row r="8">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03614457831325301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1379,10 +1379,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>94.75</v>
+        <v>118.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1513157894736842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.2951807228915663</v>
       </c>
     </row>
     <row r="4">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>22.5</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1973684210526316</v>
+        <v>0.2469879518072289</v>
       </c>
     </row>
     <row r="5">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09868421052631579</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="6">
@@ -1506,13 +1506,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="7">
@@ -1523,13 +1523,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="8">
@@ -1540,13 +1540,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="9">
@@ -1572,10 +1572,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>110.5</v>
+        <v>99.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2098765432098765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.2252747252747253</v>
       </c>
     </row>
     <row r="4">
@@ -1665,13 +1665,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>24.75</v>
+        <v>49.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.3626373626373626</v>
       </c>
     </row>
     <row r="5">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1648351648351648</v>
       </c>
     </row>
     <row r="6">
@@ -1699,13 +1699,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.0989010989010989</v>
       </c>
     </row>
     <row r="7">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.1263736263736264</v>
       </c>
     </row>
     <row r="8">
@@ -1733,13 +1733,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.02197802197802198</v>
       </c>
     </row>
     <row r="9">
@@ -1765,10 +1765,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D10" t="n">
-        <v>93.25</v>
+        <v>110</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1824,13 +1824,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1513157894736842</v>
       </c>
     </row>
     <row r="3">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1419753086419753</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="4">
@@ -1858,13 +1858,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>22.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.1973684210526316</v>
       </c>
     </row>
     <row r="5">
@@ -1875,13 +1875,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>18.5</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.228395061728395</v>
+        <v>0.09868421052631579</v>
       </c>
     </row>
     <row r="6">
@@ -1892,13 +1892,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="7">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02469135802469136</v>
+        <v>0.09210526315789473</v>
       </c>
     </row>
     <row r="8">
@@ -1926,13 +1926,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -1958,13 +1958,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>108</v>
+        <v>110.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2098765432098765</v>
       </c>
     </row>
     <row r="3">
@@ -2034,13 +2034,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2252747252747253</v>
+        <v>0.08024691358024691</v>
       </c>
     </row>
     <row r="4">
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>49.5</v>
+        <v>24.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3626373626373626</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="5">
@@ -2068,13 +2068,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1648351648351648</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -2085,13 +2085,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0989010989010989</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="7">
@@ -2102,13 +2102,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1263736263736264</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02197802197802198</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="9">
@@ -2151,10 +2151,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>110</v>
+        <v>93.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -2227,13 +2227,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4968152866242038</v>
+        <v>0.1419753086419753</v>
       </c>
     </row>
     <row r="4">
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1719745222929936</v>
+        <v>0.5185185185185185</v>
       </c>
     </row>
     <row r="5">
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2229299363057325</v>
+        <v>0.228395061728395</v>
       </c>
     </row>
     <row r="6">
@@ -2278,13 +2278,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06369426751592357</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="7">
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04458598726114649</v>
+        <v>0.02469135802469136</v>
       </c>
     </row>
     <row r="8">
@@ -2344,13 +2344,13 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>118.25</v>
+        <v>108</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
@@ -7,16 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Toyota Yaris" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Mazda MX-30" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Honda JAZZ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Land Rover Defender" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="SEAT Leon" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="KIA Sorento" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Honda e" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Hyundai i10" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ISUZU D-Max Crew Cab" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Audi A3" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Mazda MX 30" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Landrover Defender" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Honda e" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Hyundai i10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Audi A3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -473,13 +468,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1168831168831169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +485,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3441558441558442</v>
+        <v>0.4698795180722892</v>
       </c>
     </row>
     <row r="4">
@@ -507,13 +502,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3674698795180723</v>
       </c>
     </row>
     <row r="5">
@@ -524,13 +519,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09740259740259741</v>
+        <v>0.05421686746987952</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +536,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02597402597402598</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="7">
@@ -558,13 +553,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07792207792207792</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="8">
@@ -575,13 +570,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06493506493506493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -607,203 +602,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>111</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.01807228915662651</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>37</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2228915662650602</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2530120481927711</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2168674698795181</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.1265060240963855</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1265060240963855</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.03614457831325301</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>166</v>
-      </c>
-      <c r="D10" t="n">
-        <v>94.75</v>
+        <v>131.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -882,7 +684,7 @@
         <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.4968152866242038</v>
       </c>
     </row>
     <row r="4">
@@ -893,13 +695,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +712,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05421686746987952</v>
+        <v>0.2229299363057325</v>
       </c>
     </row>
     <row r="6">
@@ -927,13 +729,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.06369426751592357</v>
       </c>
     </row>
     <row r="7">
@@ -944,13 +746,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.04458598726114649</v>
       </c>
     </row>
     <row r="8">
@@ -993,10 +795,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>131.25</v>
+        <v>118.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1052,13 +854,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1730769230769231</v>
+        <v>0.1513157894736842</v>
       </c>
     </row>
     <row r="3">
@@ -1069,13 +871,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3684210526315789</v>
       </c>
     </row>
     <row r="4">
@@ -1086,13 +888,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>22.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.1973684210526316</v>
       </c>
     </row>
     <row r="5">
@@ -1103,13 +905,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1217948717948718</v>
+        <v>0.09868421052631579</v>
       </c>
     </row>
     <row r="6">
@@ -1120,13 +922,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0576923076923077</v>
+        <v>0.03947368421052631</v>
       </c>
     </row>
     <row r="7">
@@ -1137,13 +939,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.09210526315789473</v>
       </c>
     </row>
     <row r="8">
@@ -1154,13 +956,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="9">
@@ -1186,10 +988,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D10" t="n">
-        <v>104.75</v>
+        <v>110.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1245,13 +1047,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.2098765432098765</v>
       </c>
     </row>
     <row r="3">
@@ -1262,13 +1064,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4968152866242038</v>
+        <v>0.08024691358024691</v>
       </c>
     </row>
     <row r="4">
@@ -1279,13 +1081,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>24.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1719745222929936</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="5">
@@ -1296,13 +1098,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2229299363057325</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="6">
@@ -1313,13 +1115,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06369426751592357</v>
+        <v>0.08641975308641975</v>
       </c>
     </row>
     <row r="7">
@@ -1330,13 +1132,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04458598726114649</v>
+        <v>0.1234567901234568</v>
       </c>
     </row>
     <row r="8">
@@ -1347,13 +1149,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="9">
@@ -1379,10 +1181,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D10" t="n">
-        <v>118.25</v>
+        <v>93.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1438,13 +1240,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.01807228915662651</v>
       </c>
     </row>
     <row r="3">
@@ -1455,13 +1257,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2951807228915663</v>
+        <v>0.2228915662650602</v>
       </c>
     </row>
     <row r="4">
@@ -1472,13 +1274,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>30.75</v>
+        <v>31.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2469879518072289</v>
+        <v>0.2530120481927711</v>
       </c>
     </row>
     <row r="5">
@@ -1489,13 +1291,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1927710843373494</v>
+        <v>0.2168674698795181</v>
       </c>
     </row>
     <row r="6">
@@ -1506,13 +1308,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09036144578313253</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="7">
@@ -1523,13 +1325,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1385542168674699</v>
+        <v>0.1265060240963855</v>
       </c>
     </row>
     <row r="8">
@@ -1575,782 +1377,10 @@
         <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5</v>
+        <v>94.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>41</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2252747252747253</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3626373626373626</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1648351648351648</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0989010989010989</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>23</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1263736263736264</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.02197802197802198</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>182</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>23</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1513157894736842</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3684210526315789</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1973684210526316</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.09868421052631579</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.03947368421052631</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>14</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.09210526315789473</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>152</v>
-      </c>
-      <c r="D10" t="n">
-        <v>110.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2098765432098765</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.08024691358024691</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2037037037037037</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2222222222222222</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08641975308641975</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1234567901234568</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>12</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.07407407407407407</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>162</v>
-      </c>
-      <c r="D10" t="n">
-        <v>93.25</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>PREDICTION</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Nr of points</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%-age</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Default green</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.1419753086419753</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5185185185185185</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.228395061728395</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.08641975308641975</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02469135802469136</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Default Red</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Predicted headform score (excluding blue points)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>162</v>
-      </c>
-      <c r="D10" t="n">
-        <v>108</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform - Prediction tables/2020_cars_combined.xlsx
@@ -7,11 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mazda MX 30" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Landrover Defender" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Honda e" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Hyundai i10" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Audi A3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Toyota Yaris" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Mazda MX-30" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Honda JAZZ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Land Rover Defender" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="SEAT Leon" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="KIA Sorento" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Honda e" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Hyundai i10" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ISUZU D-Max Crew Cab" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Audi A3" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,6 +441,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -468,13 +480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1168831168831169</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +497,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4698795180722892</v>
+        <v>0.3441558441558442</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>45.75</v>
+        <v>31.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3674698795180723</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +531,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05421686746987952</v>
+        <v>0.09740259740259741</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +548,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07228915662650602</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +565,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03614457831325301</v>
+        <v>0.07792207792207792</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +582,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.06493506493506493</v>
       </c>
     </row>
     <row r="9">
@@ -602,10 +614,210 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
+        <v>154</v>
+      </c>
+      <c r="D10" t="n">
+        <v>111</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.01807228915662651</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2228915662650602</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2530120481927711</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2168674698795181</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1265060240963855</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1265060240963855</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.03614457831325301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>131.25</v>
+        <v>94.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -629,6 +841,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -684,7 +903,7 @@
         <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4968152866242038</v>
+        <v>0.4698795180722892</v>
       </c>
     </row>
     <row r="4">
@@ -695,13 +914,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>20.25</v>
+        <v>45.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1719745222929936</v>
+        <v>0.3674698795180723</v>
       </c>
     </row>
     <row r="5">
@@ -712,13 +931,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>17.5</v>
+        <v>4.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2229299363057325</v>
+        <v>0.05421686746987952</v>
       </c>
     </row>
     <row r="6">
@@ -729,13 +948,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06369426751592357</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="7">
@@ -746,13 +965,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04458598726114649</v>
+        <v>0.03614457831325301</v>
       </c>
     </row>
     <row r="8">
@@ -795,10 +1014,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>118.25</v>
+        <v>131.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -822,6 +1041,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -854,13 +1080,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1513157894736842</v>
+        <v>0.1730769230769231</v>
       </c>
     </row>
     <row r="3">
@@ -871,13 +1097,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3684210526315789</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4">
@@ -888,13 +1114,13 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
         <v>30</v>
       </c>
-      <c r="D4" t="n">
-        <v>22.5</v>
-      </c>
       <c r="E4" t="n">
-        <v>0.1973684210526316</v>
+        <v>0.2564102564102564</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +1131,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09868421052631579</v>
+        <v>0.1217948717948718</v>
       </c>
     </row>
     <row r="6">
@@ -922,13 +1148,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03947368421052631</v>
+        <v>0.0576923076923077</v>
       </c>
     </row>
     <row r="7">
@@ -939,13 +1165,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09210526315789473</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -956,13 +1182,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05263157894736842</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
     <row r="9">
@@ -988,10 +1214,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D10" t="n">
-        <v>110.5</v>
+        <v>104.75</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1015,6 +1241,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1047,13 +1280,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2098765432098765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1064,13 +1297,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08024691358024691</v>
+        <v>0.4968152866242038</v>
       </c>
     </row>
     <row r="4">
@@ -1081,13 +1314,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>24.75</v>
+        <v>20.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2037037037037037</v>
+        <v>0.1719745222929936</v>
       </c>
     </row>
     <row r="5">
@@ -1098,13 +1331,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2229299363057325</v>
       </c>
     </row>
     <row r="6">
@@ -1115,13 +1348,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08641975308641975</v>
+        <v>0.06369426751592357</v>
       </c>
     </row>
     <row r="7">
@@ -1132,13 +1365,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1234567901234568</v>
+        <v>0.04458598726114649</v>
       </c>
     </row>
     <row r="8">
@@ -1149,13 +1382,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1181,10 +1414,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" t="n">
-        <v>93.25</v>
+        <v>118.25</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1208,6 +1441,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1240,13 +1480,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01807228915662651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1257,13 +1497,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="D3" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2228915662650602</v>
+        <v>0.2951807228915663</v>
       </c>
     </row>
     <row r="4">
@@ -1274,13 +1514,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="n">
-        <v>31.5</v>
+        <v>30.75</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2530120481927711</v>
+        <v>0.2469879518072289</v>
       </c>
     </row>
     <row r="5">
@@ -1291,13 +1531,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2168674698795181</v>
+        <v>0.1927710843373494</v>
       </c>
     </row>
     <row r="6">
@@ -1308,13 +1548,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1265060240963855</v>
+        <v>0.09036144578313253</v>
       </c>
     </row>
     <row r="7">
@@ -1325,13 +1565,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1265060240963855</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="8">
@@ -1377,10 +1617,810 @@
         <v>166</v>
       </c>
       <c r="D10" t="n">
-        <v>94.75</v>
+        <v>99.5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>41</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2252747252747253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3626373626373626</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1648351648351648</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0989010989010989</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1263736263736264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.02197802197802198</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>182</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1513157894736842</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3684210526315789</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1973684210526316</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.09868421052631579</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.03947368421052631</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.09210526315789473</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.05263157894736842</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>152</v>
+      </c>
+      <c r="D10" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2098765432098765</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08024691358024691</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2037037037037037</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08641975308641975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1234567901234568</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.07407407407407407</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>162</v>
+      </c>
+      <c r="D10" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="50" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PREDICTION</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Nr of points</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>%-age</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Default green</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1419753086419753</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5185185185185185</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orange</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.228395061728395</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brown</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08641975308641975</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02469135802469136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Default Red</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>162</v>
+      </c>
+      <c r="D10" t="n">
+        <v>108</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
